--- a/Accounting Standard - Rules.xlsx
+++ b/Accounting Standard - Rules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bdocanada-my.sharepoint.com/personal/kdutt_bdo_ca/Documents/Desktop/Personal/Others/NFRA - AI Comp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bdocanada-my.sharepoint.com/personal/kdutt_bdo_ca/Documents/Desktop/Personal/Others/Saathi AI - IndiaAI Financial Reporting Compliance Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{4384EAB8-2AEA-4A1E-BACD-343B6AF8394B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7009E63B-C40D-45A2-BE57-4CBEC6D6B640}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{4384EAB8-2AEA-4A1E-BACD-343B6AF8394B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86EF0CBB-8696-4F22-8B7F-A4A7C29C4B93}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -95,28 +95,30 @@
 IF (It is certain that the Company has been declared a Non performing Asset by banks and the financial check comes lower than 6%) -&gt; FLAG FOR CHECKING</t>
   </si>
   <si>
+    <t>Rule  Details</t>
+  </si>
+  <si>
+    <t>High level overview details about the rule.</t>
+  </si>
+  <si>
+    <t>Json</t>
+  </si>
+  <si>
+    <t>A checklist for the LLM to process sequentially, with the targeted sections for each</t>
+  </si>
+  <si>
     <t>1. Does the Clause 9 of CARO reporting done by the auditor mention any default in repayment of loans (principal or interest)? :  [Independent Audit Report],
-2. If yes, is the period of default 90 days or more?  :  [Independent Audit Report],
-3. If the default is 90 days or more, the loan is a declared Non performing Asset by Banks :  [Independent Audit Report],
-4. Has the independent auditor in his mentioned that the Company has not accounted for interest expense in Financial statements? :  [Independent Audit Report],
-5. Has the Company in the notes to accounts and disclosures to Financial statements, mentioned it being declared a non performing asset by the Bank, other lenders?.[Notes to Accounts]
-6. Has the Company mentioned the non accounting of interest expense incurred on such NPA loans in its Profit and loss account?  :  [Notes to Accounts],
-6. Is the % in financial check suspiciously low (less than 6%, indicatiing that the interest on NPA loans has not been accounted for/expensed? :  [Profit and Loss Account, Balance Sheet],
+2.1 If no, go to point 3
+2.2 If yes, is the period of default mentioned 90 days or more?  :  [Independent Audit Report],
+2.3 If the default is 90 days or more, this proves the existence of the Company being declared a Non Performing Asset. If no, there is still a chance that the Company would not have accounted for the interest expenses, albeit the Company would not be a NPA :  [Independent Audit Report],
+3. Check whether the independent auditor in his entire audit report mentioned that the Company has not accounted for interest expense on loans in Financial statements? :  [Independent Audit Report],
+4. Has the Company in the notes to accounts and disclosures to Financial statements, mentioned it being declared a NPA by the Bank, other lenders?.[Notes to Accounts]
+4.1 If yes, has the Company mentioned the non accounting of interest expense incurred on such loans (whether NPA or not) in its Profit and loss account?  :  [Notes to Accounts],
+5. If from any of the steps above, it is established that the Company has not accounted for interest on loans (be the reason that the loans become NPA or were about to become NPA), flag the status as Non Compliant. (As mentioned in failure trigger)
+6. Is the % in financial check suspiciously low (less than % specified in Failure Trigger, indicatiing that the interest on borrowings/ NPA loans has not been accounted for/expensed? :  [Profit and Loss Account, Balance Sheet],
 The financial check 
 Numerator - Total Finance Cost on borrowings ( only include interest on loans, debentures and other secuirities/borrowings), do not include interest on lease contracts and interest incurred on late payment of statutory dues. [Profit and Loss Account]
 Denominator - Take the Average of Borrowings from Banks, debentures and other borrowings (Average = Opening balance + Closing balance/2) :  [Balance Sheet]</t>
-  </si>
-  <si>
-    <t>Rule  Details</t>
-  </si>
-  <si>
-    <t>High level overview details about the rule.</t>
-  </si>
-  <si>
-    <t>Json</t>
-  </si>
-  <si>
-    <t>A checklist for the LLM to process sequentially, with the targeted sections for each</t>
   </si>
 </sst>
 </file>
@@ -591,13 +593,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
@@ -627,10 +629,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
@@ -653,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -687,7 +689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="282" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="365.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -701,7 +703,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
